--- a/formats/excel/Formats RSA UM 20.xlsx
+++ b/formats/excel/Formats RSA UM 20.xlsx
@@ -1,23 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27815"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10405"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guillaumepressiat/Documents/R/pmeasyr_versions/pmeasyr_0.2/formats/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guillaumepressiat/Documents/Developpements/Github/formats_pmeasyr/formats/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5F71548-BB89-3540-9D1A-A9FF76789CAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1460" yWindow="460" windowWidth="27340" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="4820" yWindow="2300" windowWidth="27340" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -27,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
   <si>
     <t>position</t>
   </si>
@@ -104,9 +111,6 @@
     <t>Numéro séquentiel du RUM</t>
   </si>
   <si>
-    <t>Finess établissement</t>
-  </si>
-  <si>
     <t>Diagnostic principal de l'UM</t>
   </si>
   <si>
@@ -144,13 +148,22 @@
   </si>
   <si>
     <t>Nombre de suppléments 2</t>
+  </si>
+  <si>
+    <t>Numéro séquentiel de l'UM</t>
+  </si>
+  <si>
+    <t>Numéro FINESS géographique</t>
+  </si>
+  <si>
+    <t>NSEQUM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -158,16 +171,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -175,12 +199,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -190,6 +235,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -457,14 +505,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:XFD33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.6640625" customWidth="1"/>
     <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -496,10 +546,10 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <f>D2-B2+1</f>
         <v>2</v>
       </c>
       <c r="D2">
+        <f>C2+B2-1</f>
         <v>2</v>
       </c>
       <c r="E2" t="s">
@@ -510,21 +560,21 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3">
+      <c r="A3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="2">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D17" si="0">C3+B3-1</f>
         <v>6</v>
       </c>
-      <c r="C3">
-        <f t="shared" ref="C3:C16" si="0">D3-B3+1</f>
-        <v>9</v>
-      </c>
-      <c r="D3">
-        <v>14</v>
-      </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="F3" t="s">
         <v>21</v>
@@ -532,41 +582,41 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B4">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>9</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C4">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="D4">
-        <v>20</v>
-      </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B5">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C5">
-        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="D5">
-        <v>26</v>
+        <f t="shared" si="0"/>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F5" t="s">
         <v>22</v>
@@ -574,41 +624,41 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B6">
+        <v>22</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="C6">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="D6">
-        <v>29</v>
-      </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B7">
+        <v>28</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="C7">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>31</v>
-      </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
         <v>21</v>
@@ -616,41 +666,41 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B8">
+        <v>31</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="C8">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D8">
-        <v>33</v>
-      </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B9">
+        <v>33</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="C9">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="D9">
-        <v>36</v>
-      </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F9" t="s">
         <v>23</v>
@@ -658,20 +708,20 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B10">
+        <v>35</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="C10">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D10">
-        <v>40</v>
-      </c>
       <c r="E10" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F10" t="s">
         <v>23</v>
@@ -679,41 +729,41 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B11">
+        <v>38</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="C11">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D11">
-        <v>44</v>
-      </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="F11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B12">
+        <v>42</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="C12">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D12">
-        <v>46</v>
-      </c>
       <c r="E12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F12" t="s">
         <v>21</v>
@@ -721,62 +771,62 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B13">
+        <v>46</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="C13">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D13">
-        <v>50</v>
-      </c>
       <c r="E13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B14">
+        <v>48</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="C14">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D14">
-        <v>54</v>
-      </c>
       <c r="E14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F14" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B15">
+        <v>52</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="C15">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D15">
-        <v>56</v>
-      </c>
       <c r="E15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F15" t="s">
         <v>21</v>
@@ -784,22 +834,43 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B16">
+        <v>56</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="C16">
-        <f t="shared" si="0"/>
+      <c r="E16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17">
+        <v>58</v>
+      </c>
+      <c r="C17">
         <v>4</v>
       </c>
-      <c r="D16">
-        <v>60</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="E17" t="s">
         <v>20</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F17" t="s">
         <v>21</v>
       </c>
     </row>
